--- a/data/cross-life-example.xlsx
+++ b/data/cross-life-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ntnc/Workspace/GitHub/combination-engine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65DD29F-AE30-BF43-BA68-E8E446821FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B43B7C5-F6CC-CD45-B6FF-EB22007B636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-2340" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>[Request][Body]data.clientProfiles[1].personalInfo.occupation.class</t>
   </si>
   <si>
-    <t>https://vpms-dev.aks.lb1-sglife-uat-az1-ios0n9.pru.intranet.asia/vpms-api/v2/products</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -230,13 +227,16 @@
   </si>
   <si>
     <t>15.03.1990</t>
+  </si>
+  <si>
+    <t>https://vpms-d2c.lb1-sglife-uat-az1-lr0obp.pru.intranet.asia/vpms-api/v2/products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,18 +305,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,9 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,189 +840,192 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2">
+        <v>21755</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="2">
-        <v>21755</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="2" t="b">
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="b">
+      <c r="S2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2">
+        <v>16</v>
+      </c>
+      <c r="U2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="W2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2">
+        <v>18</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="2">
-        <v>16</v>
-      </c>
-      <c r="U2" s="3" t="b">
+      <c r="AQ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="R3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>18</v>
-      </c>
-      <c r="AN2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>66</v>
+      <c r="T3">
+        <v>17</v>
+      </c>
+      <c r="AM3">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>47</v>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>50</v>
+      </c>
+      <c r="AM4">
+        <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="T4" s="2">
-        <v>50</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="T5" s="2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="T5">
         <v>99</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{974FBA00-2FE7-E641-BE8B-7E3C06C990E0}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>